--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>228317.7025447326</v>
+        <v>225616.0546421979</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
-        <v>158.2964914343831</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>81.21477241771925</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>141.4261508958554</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>71.59042511890991</v>
       </c>
     </row>
     <row r="4">
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>14.26443468834025</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>264.1981927189489</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>105.4646788525236</v>
+        <v>159.0184015623263</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>144.8789500373952</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>138.3684423428052</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>117.5615260018594</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83088445038201</v>
+        <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163651</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151397</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.94002275672071</v>
       </c>
       <c r="U8" t="n">
         <v>251.0679046626562</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1227,7 +1227,7 @@
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436609</v>
+        <v>94.29488917436608</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.34503645282963</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>109.9671462787382</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>204.6333553380598</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3808817867763</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.29521543341097</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>13.38465568425031</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>315.3998342615265</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615211</v>
       </c>
       <c r="T11" t="n">
-        <v>41.8528925920007</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530788</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>15.62640584938434</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905237</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.05706037504422</v>
       </c>
     </row>
     <row r="14">
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428188</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8253826161911274</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>72.80978492055095</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520914</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>33.58398714687311</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833807</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.02344404120677</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444153</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>171.5573199799899</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444168</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833767</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.0250037474711</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187896</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>185.6920487814945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576191</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085811951</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856559</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427848</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012176</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444156</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>114.2821160880069</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>65.67353929277269</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.3673327389939</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>211.3673327389939</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389939</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
         <v>80.81213159058939</v>
@@ -4337,43 +4337,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
         <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>590.2069027719635</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>590.2069027719635</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>400.7871177554787</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.3673327389939</v>
+        <v>211.3673327389938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.1023486652798</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="C3" t="n">
-        <v>607.2476507906783</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="D3" t="n">
-        <v>458.313241129427</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="E3" t="n">
-        <v>299.0757861239715</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>152.5412281508565</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>649.2101578476346</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652798</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652798</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652798</v>
+        <v>74.50160142188287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4510,28 +4510,28 @@
         <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.348663564705</v>
+        <v>806.9249879919186</v>
       </c>
       <c r="C5" t="n">
-        <v>870.3861466242934</v>
+        <v>806.9249879919186</v>
       </c>
       <c r="D5" t="n">
-        <v>870.3861466242934</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="E5" t="n">
-        <v>870.3861466242934</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346858</v>
+        <v>441.7137886359646</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809306</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N5" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T5" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U5" t="n">
-        <v>1943.877309169356</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V5" t="n">
-        <v>1612.814421825785</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.814421825785</v>
+        <v>1570.53007822881</v>
       </c>
       <c r="X5" t="n">
-        <v>1239.348663564705</v>
+        <v>1197.06431996773</v>
       </c>
       <c r="Y5" t="n">
-        <v>1239.348663564705</v>
+        <v>806.9249879919186</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>700.0609647479944</v>
+        <v>299.4492115120137</v>
       </c>
       <c r="C6" t="n">
-        <v>593.5309861090816</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="D6" t="n">
-        <v>444.5965764478304</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E6" t="n">
-        <v>285.3591214423749</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F6" t="n">
         <v>138.8245634692599</v>
@@ -4638,10 +4638,10 @@
         <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J6" t="n">
         <v>89.55356510562316</v>
@@ -4671,25 +4671,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U6" t="n">
-        <v>1538.125457466751</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V6" t="n">
-        <v>1538.125457466751</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W6" t="n">
-        <v>1283.888100738549</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X6" t="n">
-        <v>1076.036600533016</v>
+        <v>507.2095102769676</v>
       </c>
       <c r="Y6" t="n">
-        <v>868.2763017680625</v>
+        <v>299.4492115120137</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934482</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K7" t="n">
         <v>92.71685897981521</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>497.4664265514521</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S7" t="n">
-        <v>497.4664265514521</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T7" t="n">
-        <v>497.4664265514521</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="U7" t="n">
-        <v>497.4664265514521</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="V7" t="n">
-        <v>497.4664265514521</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="W7" t="n">
-        <v>208.0492565144914</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.0492565144914</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>893.0148861890248</v>
+        <v>851.6671571886758</v>
       </c>
       <c r="C8" t="n">
-        <v>774.2658700255304</v>
+        <v>851.6671571886758</v>
       </c>
       <c r="D8" t="n">
-        <v>774.2658700255304</v>
+        <v>851.6671571886758</v>
       </c>
       <c r="E8" t="n">
-        <v>774.2658700255304</v>
+        <v>851.6671571886758</v>
       </c>
       <c r="F8" t="n">
-        <v>363.2799652359228</v>
+        <v>440.6812523990682</v>
       </c>
       <c r="G8" t="n">
-        <v>351.3295769022035</v>
+        <v>428.730864065349</v>
       </c>
       <c r="H8" t="n">
-        <v>44.3410042594105</v>
+        <v>121.742291422556</v>
       </c>
       <c r="I8" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420291</v>
+        <v>156.8280559420293</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002229</v>
+        <v>376.1555054002236</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707916</v>
+        <v>685.1523625707928</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937546</v>
+        <v>1060.640340937548</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733704</v>
+        <v>1446.817915733706</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659504</v>
+        <v>1798.139187659508</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284328</v>
+        <v>2063.482764284332</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.57199322851</v>
+        <v>2214.571993228514</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970525</v>
+        <v>2217.050212970529</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970525</v>
+        <v>2217.050212970529</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970525</v>
+        <v>2199.939078872831</v>
       </c>
       <c r="U8" t="n">
-        <v>1963.446268866831</v>
+        <v>1946.335134769138</v>
       </c>
       <c r="V8" t="n">
-        <v>1632.383381523261</v>
+        <v>1615.272247425567</v>
       </c>
       <c r="W8" t="n">
-        <v>1279.614726253147</v>
+        <v>1615.272247425567</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.614726253147</v>
+        <v>1241.806489164488</v>
       </c>
       <c r="Y8" t="n">
-        <v>1279.614726253147</v>
+        <v>851.6671571886758</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>731.1492462742624</v>
+        <v>756.6678658941383</v>
       </c>
       <c r="C9" t="n">
-        <v>731.1492462742624</v>
+        <v>582.2148366130114</v>
       </c>
       <c r="D9" t="n">
-        <v>582.2148366130111</v>
+        <v>582.2148366130114</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9773816075557</v>
+        <v>422.9773816075558</v>
       </c>
       <c r="F9" t="n">
         <v>276.4428236344407</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618005</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="H9" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="I9" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113468</v>
+        <v>92.51967467113494</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154153</v>
+        <v>253.0195209154159</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572527</v>
+        <v>515.1539122572538</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449714</v>
+        <v>840.409251044973</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738682</v>
+        <v>1188.681775738684</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.06330007421</v>
+        <v>1485.063300074212</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566939</v>
+        <v>1703.602536566942</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257636</v>
+        <v>1799.771032257639</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.771032257636</v>
+        <v>1769.119480285084</v>
       </c>
       <c r="S9" t="n">
-        <v>1661.206416030639</v>
+        <v>1769.119480285084</v>
       </c>
       <c r="T9" t="n">
-        <v>1550.12849049656</v>
+        <v>1574.495968838236</v>
       </c>
       <c r="U9" t="n">
-        <v>1550.12849049656</v>
+        <v>1367.795609910903</v>
       </c>
       <c r="V9" t="n">
-        <v>1314.976382264817</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="W9" t="n">
-        <v>1314.976382264817</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="X9" t="n">
-        <v>1107.124882059284</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="Y9" t="n">
-        <v>899.3645832943305</v>
+        <v>924.8832029142063</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="C10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="D10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="E10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="F10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="G10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="H10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="I10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="J10" t="n">
-        <v>44.3410042594105</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016703</v>
+        <v>95.74470838016728</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810353</v>
+        <v>191.4295496810358</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422648</v>
+        <v>295.5740818422655</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091231</v>
+        <v>405.0998157091241</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712708</v>
+        <v>485.951469271272</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.0720553139728</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.0720553139728</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.0720553139728</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139714</v>
+        <v>536.0720553139728</v>
       </c>
       <c r="T10" t="n">
-        <v>448.9051710377987</v>
+        <v>312.5453466918129</v>
       </c>
       <c r="U10" t="n">
-        <v>448.9051710377987</v>
+        <v>299.0254924652975</v>
       </c>
       <c r="V10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="W10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="X10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
       <c r="Y10" t="n">
-        <v>194.2206828319119</v>
+        <v>44.34100425941058</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.193286469377</v>
+        <v>1872.090169197696</v>
       </c>
       <c r="C11" t="n">
-        <v>1647.193286469377</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643831</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747755</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592071</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592071</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
@@ -5057,34 +5057,34 @@
         <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479994</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464062</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796038</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345377</v>
+        <v>3776.999350345379</v>
       </c>
       <c r="T11" t="n">
-        <v>3734.723701262547</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3481.229759384076</v>
+        <v>3319.526802048272</v>
       </c>
       <c r="V11" t="n">
-        <v>3150.166872040505</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.398216770391</v>
+        <v>2635.695259434587</v>
       </c>
       <c r="X11" t="n">
-        <v>2423.932458509311</v>
+        <v>2262.229501173507</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.793126533499</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592071</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>272.7431585655885</v>
+        <v>470.7769964046656</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235399</v>
+        <v>889.4740370626173</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180068</v>
+        <v>996.4574081599343</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881278</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>626.9126764007262</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>626.9126764007262</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>476.7960369883906</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>328.8829434059976</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>328.8829434059975</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
-        <v>313.098695073286</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717528</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592071</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.5788654344811</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5218,31 +5218,31 @@
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742807</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
         <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925583</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1835.852134360023</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1546.760441309474</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1546.760441309474</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1257.343271272513</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.353720374496</v>
+        <v>586.5533847019058</v>
       </c>
       <c r="Y13" t="n">
-        <v>808.561141230966</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474265</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474265</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474265</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>94.65038286230629</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647308</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368239</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244881</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>481.4479471244881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>334.5579996265777</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3619003414577</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949705</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,28 +5762,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123002</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2413.039864239985</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2230.185029894889</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.58356491783</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1721.508338262028</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225068</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835327</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D25" t="n">
-        <v>697.527634571197</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797742</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026074</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820187</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297693</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2324.338143427403</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2104.736678450344</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X28" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138391</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.7776635101469</v>
+        <v>695.502065570309</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168628</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362702</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438164</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998423</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078142</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799073</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675715</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7138464380539</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362717</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273915</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516147</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167374</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793926</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348534</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.7772127656167</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377097</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253738</v>
+        <v>194.8007783998281</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429807</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429806</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578604</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.700204330167</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.624977674365</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.624977674365</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1582.207807637404</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1354.218256739387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.425677595857</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797194</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.142269263731</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890283</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.11872044489</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684178</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835336</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711977</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888045</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908941</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797748</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797194</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111722</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516147</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167374</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793926</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348534</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400709</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429805</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429805</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429805</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429805</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138407</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703106</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273915</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.230692780394</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516147</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348534</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400695</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121613</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121613</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270411</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138396</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703094</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362705</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,40 +7658,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637309</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890283</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.11872044489</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684178</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2380.626175203724</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2380.626175203724</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2091.550948547922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>49.8730575094811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>160.0859277624485</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>150.1965975075393</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927373</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770506</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864937</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.4693302300328</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>67.48492792567291</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.79125956324855</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>45.44677382459318</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295179</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>126.0028419604378</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.84813034729837</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.4596884482315</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3804465798172316</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856559</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>32.89260457060041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405083</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067401</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465693</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194552</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856563</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>65.54986409393035</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.3527467088719</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>967004.6727170108</v>
+        <v>967004.6727170112</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1063929.234757304</v>
+        <v>1063929.234757303</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234783</v>
+        <v>329665.1599234784</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605026</v>
@@ -26335,10 +26335,10 @@
         <v>363215.9698605027</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605027</v>
@@ -26350,7 +26350,7 @@
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605028</v>
@@ -26369,16 +26369,16 @@
         <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264098</v>
+        <v>12262.85603264215</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674511</v>
+        <v>395943.9567674506</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.2687704286</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854453</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487829</v>
+        <v>91259.95686487779</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949507</v>
+        <v>3074.447349949708</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931122</v>
+        <v>103409.260893112</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202369</v>
+        <v>49839.57413202352</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607424</v>
+        <v>170817.8827607421</v>
       </c>
       <c r="E4" t="n">
         <v>15331.22144723313</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26436,28 +26436,28 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687968</v>
       </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
       <c r="K4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.64000687952</v>
+        <v>15436.64000687965</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687952</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687951</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687946</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687958</v>
+        <v>15436.64000687969</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404155</v>
+        <v>86153.75444404164</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.4850673857</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26494,22 +26494,22 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557410.4713276615</v>
+        <v>-557410.4713276613</v>
       </c>
       <c r="C6" t="n">
-        <v>-282443.5197920198</v>
+        <v>-282443.5197920199</v>
       </c>
       <c r="D6" t="n">
-        <v>100234.3032015027</v>
+        <v>100234.3032015018</v>
       </c>
       <c r="E6" t="n">
-        <v>-166747.5033585916</v>
+        <v>-166968.6346725657</v>
       </c>
       <c r="F6" t="n">
-        <v>57348.53125928681</v>
+        <v>57313.79333385156</v>
       </c>
       <c r="G6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="H6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042801</v>
       </c>
       <c r="I6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="J6" t="n">
-        <v>197591.8553011713</v>
+        <v>197557.1173757358</v>
       </c>
       <c r="K6" t="n">
-        <v>155396.8431648378</v>
+        <v>155362.1052394023</v>
       </c>
       <c r="L6" t="n">
-        <v>243582.3526797665</v>
+        <v>243547.6147543305</v>
       </c>
       <c r="M6" t="n">
-        <v>143247.5391366039</v>
+        <v>143212.8012111681</v>
       </c>
       <c r="N6" t="n">
-        <v>196817.2258976924</v>
+        <v>196782.4879722567</v>
       </c>
       <c r="O6" t="n">
-        <v>246656.8000297161</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="P6" t="n">
-        <v>246656.8000297161</v>
+        <v>246622.0621042802</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573199</v>
+        <v>863.6234498573208</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.24123721495</v>
+        <v>1202.241237214951</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426312</v>
+        <v>554.2625532426323</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490088</v>
+        <v>969.2208239490095</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,16 +26963,16 @@
         <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319635759</v>
+        <v>9.912785319636669</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576303</v>
+        <v>338.6177873576298</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.7342631267231</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646796</v>
+        <v>12.14759651646921</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063777</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>354.5893695598435</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646841</v>
+        <v>12.14759651646921</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063777</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646796</v>
+        <v>12.14759651646921</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063777</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506395</v>
+        <v>203.4874641506389</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27433,19 +27433,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
-        <v>169.4557670357518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>305.0231662383343</v>
       </c>
     </row>
     <row r="3">
@@ -27458,25 +27458,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>31.2823480924603</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>15.37922103265839</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920013</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>134.0922706583945</v>
       </c>
     </row>
     <row r="4">
@@ -27582,13 +27582,13 @@
         <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>80.60642335625595</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>236.8066580057756</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.04277599846415</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>67.24382013579209</v>
+        <v>13.69009742598945</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
@@ -27743,16 +27743,16 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>21.57255107353663</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
         <v>148.5398113612452</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>82.99937639149744</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>247.7113657691481</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151411</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731853</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>190.9577900164542</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,10 +27932,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433998</v>
+        <v>35.56536036433991</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282975</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>82.71013005364118</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>21.18581587736921</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>166.433625596421</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
         <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332438</v>
+        <v>16.89051046332426</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099054</v>
+        <v>21.0978607009904</v>
       </c>
       <c r="R10" t="n">
         <v>107.2691031313612</v>
@@ -28062,10 +28062,10 @@
         <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>134.9962261025273</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>272.8494271034021</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.353794564184568e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.395446886618932e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29469,7 +29469,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-8.363169671475202e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-8.363169671475202e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.955857780762017e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.363169671475202e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-8.363169671475202e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30274,10 +30274,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.022270675490717e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-8.363169671475202e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.570693361739906e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30508,13 +30508,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753042</v>
+        <v>3.471853064753046</v>
       </c>
       <c r="H8" t="n">
-        <v>35.5561151994021</v>
+        <v>35.55611519940214</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788918</v>
+        <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545838</v>
+        <v>294.6691890545841</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855801</v>
+        <v>441.6327292855806</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160162</v>
+        <v>547.8844525160167</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563181</v>
+        <v>609.6270194563187</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765477</v>
+        <v>619.4914219765484</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639096</v>
+        <v>584.9681830639101</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278188</v>
+        <v>499.2568105278193</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463504</v>
+        <v>374.9210726463508</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787935</v>
+        <v>218.0887900787937</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306003</v>
+        <v>79.1148517130601</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095645</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802433</v>
+        <v>0.2777482451802436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296877</v>
+        <v>1.857605156296879</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213036</v>
+        <v>17.94055506213039</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566002</v>
+        <v>63.95701963566009</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148729</v>
+        <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867637</v>
+        <v>299.962495786764</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564776</v>
+        <v>403.336593256478</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722393</v>
+        <v>470.6747801722398</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668794</v>
+        <v>483.1321410668799</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510381</v>
+        <v>441.9715215510385</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423396</v>
+        <v>354.72111094234</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230891</v>
+        <v>237.1216687230893</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111342</v>
+        <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911082</v>
+        <v>34.50420103911086</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442233</v>
+        <v>7.487452362442241</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458472</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55735376203779</v>
+        <v>1.557353762037791</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066327</v>
+        <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291827</v>
+        <v>46.83387495291832</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760717</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.936191625845</v>
+        <v>180.9361916258452</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306002</v>
+        <v>231.5360311306004</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801601</v>
+        <v>244.1222810801603</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762012</v>
+        <v>238.3175988762015</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833051</v>
+        <v>220.1248753833054</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377341</v>
+        <v>188.3548586377343</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284553</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580824</v>
+        <v>70.02428824580831</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387675</v>
+        <v>27.14042874387678</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343282</v>
+        <v>6.654147892343289</v>
       </c>
       <c r="U10" t="n">
-        <v>0.084946568838425</v>
+        <v>0.08494656883842508</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639239</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285603</v>
+        <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203917</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975127</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544657</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.655443795456</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180168</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956804</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620359</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825969</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495315</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469212</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770538</v>
+        <v>417.5746757598381</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747749</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>250.1980451314294</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340505</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924474</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383446</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.094612904754</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535157</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092167</v>
+        <v>19.27527754092168</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798455</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085355</v>
+        <v>153.2759033085356</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329027</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770064</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531029</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806239</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811711</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377485</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622651</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071789</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437246</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704892</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422588</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643557995</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704892</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34957,7 +34957,7 @@
         <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278975</v>
+        <v>113.6232845278978</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782405996</v>
+        <v>221.5428782406</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460289</v>
+        <v>312.1180375460295</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290454</v>
+        <v>379.280786229046</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799568</v>
+        <v>390.0783583799575</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422228</v>
+        <v>354.8699716422234</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725493</v>
+        <v>268.0238147725498</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719009</v>
+        <v>152.6153827719013</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661342</v>
+        <v>2.503252264661569</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820625</v>
+        <v>48.66532364820642</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124047</v>
+        <v>162.121056812405</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766034</v>
+        <v>264.7822134766038</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502209</v>
+        <v>328.5407462502214</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835461</v>
+        <v>351.7904289835466</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065936</v>
+        <v>299.3752771065941</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280093</v>
+        <v>220.7467035280097</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706756</v>
+        <v>97.13989463706778</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530962</v>
+        <v>51.92293345530979</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936189</v>
+        <v>96.65135484936212</v>
       </c>
       <c r="M10" t="n">
-        <v>105.196497132555</v>
+        <v>105.1964971325553</v>
       </c>
       <c r="N10" t="n">
-        <v>110.632054410968</v>
+        <v>110.6320544109683</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146233</v>
+        <v>81.66833693146256</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858644</v>
+        <v>50.62685458858664</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937054</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525321</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681833</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739937</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067663</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081474</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553079</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026947</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949007</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>108.0640112094111</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507173</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.667721548003</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187325</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655348</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186279</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946636</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776314</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060435</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402469</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238456</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992802</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>188.922057956159</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678998</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774958</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113551</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295334</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.922057956159</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
